--- a/FDS/test_output/Design_results.xlsx
+++ b/FDS/test_output/Design_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,36 +480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CAAAGTCGGGAAACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGTGAGCCAGAACTCATCTTC</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1071</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3">
@@ -518,36 +518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGGTTCTGACGGGAGAGGAT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>AGCAACAGCCAGTTCAACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCATCCCTCGACATGAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1070</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="4">
@@ -556,36 +556,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGCGCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>TACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTGAGCCAGAACTCATCTTC</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1073</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5">
@@ -594,36 +594,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGGACGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCGTGAGCCAGAACTCATCTTC</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6">
@@ -632,188 +632,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CACTGCGCGGGATTTTATGG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACG</t>
+          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGA</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACTTTTACGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1069</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,35 +726,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1038</v>
+        <v>1069</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>TAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCACCCTGGCGTTTT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
     </row>
@@ -916,35 +764,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CACCTGCGCATCACTCAAAC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCTAGGCAACAATATCAACGGTCAGCCGG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
         </is>
       </c>
     </row>
@@ -954,35 +802,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGG</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1039</v>
+        <v>1092</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCCGGCAGCGACTGGCGGTGGTATCCCTGGCATG</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
     </row>
@@ -992,35 +840,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>CTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
     </row>
@@ -1030,187 +878,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CGATGTCGCTGGCGTTAATG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGA</t>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>TCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1069</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1035</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1039</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1035</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>GGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
     </row>
@@ -1225,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,41 +987,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.76800258547536</v>
+        <v>13.64979653795285</v>
       </c>
       <c r="E2" t="n">
-        <v>-51.9671254908975</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="F2" t="n">
-        <v>-50.63914322873023</v>
+        <v>18.98315983858089</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AACGCGAAGGTCGGTTTTTC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60.31886934013568</v>
+        <v>59.6943825309412</v>
       </c>
       <c r="J2" t="n">
-        <v>59.4809229030995</v>
+        <v>60.59430255997739</v>
       </c>
       <c r="K2" t="n">
-        <v>2324</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="3">
@@ -1334,41 +1030,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCT</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.76800258547536</v>
+        <v>14.25874858550679</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.9671254908975</v>
+        <v>9.051540840486894</v>
       </c>
       <c r="F3" t="n">
-        <v>-50.63914322873023</v>
+        <v>-8.990713976036261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AACTTCTGAACCGGTAGCGA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AGCGCATTGGCAATAGTTGTC</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.31886934013568</v>
+        <v>59.03603785987434</v>
       </c>
       <c r="J3" t="n">
-        <v>59.4809229030995</v>
+        <v>59.86697546596565</v>
       </c>
       <c r="K3" t="n">
-        <v>3897</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="4">
@@ -1377,41 +1073,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>ACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24.76800258547536</v>
+        <v>-42.60669801557233</v>
       </c>
       <c r="E4" t="n">
-        <v>-51.9671254908975</v>
+        <v>-0.900577242230667</v>
       </c>
       <c r="F4" t="n">
-        <v>-50.63914322873023</v>
+        <v>-6.517879085020752</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ACGTAAAGTCTACATTTGTGCA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60.31886934013568</v>
+        <v>56.32043528895827</v>
       </c>
       <c r="J4" t="n">
-        <v>59.4809229030995</v>
+        <v>61.51048014864102</v>
       </c>
       <c r="K4" t="n">
-        <v>2325</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="5">
@@ -1420,41 +1116,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24.76800258547536</v>
+        <v>8.32323228564394</v>
       </c>
       <c r="E5" t="n">
-        <v>-51.9671254908975</v>
+        <v>-14.63116813722309</v>
       </c>
       <c r="F5" t="n">
-        <v>-50.63914322873023</v>
+        <v>10.99409519360194</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>TAATTTCGCCCGCACGGAT</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGTCGAACGGGACCATCATC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60.31886934013568</v>
+        <v>60.15332929800883</v>
       </c>
       <c r="J5" t="n">
-        <v>59.4809229030995</v>
+        <v>59.82515507935778</v>
       </c>
       <c r="K5" t="n">
-        <v>2322</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="6">
@@ -1463,213 +1159,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24.76800258547536</v>
+        <v>2.763999345539332</v>
       </c>
       <c r="E6" t="n">
-        <v>-51.9671254908975</v>
+        <v>-0.263335569570756</v>
       </c>
       <c r="F6" t="n">
-        <v>-50.63914322873023</v>
+        <v>2.876222107101569</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AGTCGCTAAAGTCAGGCCAT</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60.31886934013568</v>
+        <v>59.09464305682206</v>
       </c>
       <c r="J6" t="n">
-        <v>59.4809229030995</v>
+        <v>60.32042093038291</v>
       </c>
       <c r="K6" t="n">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-50.63914322873023</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J7" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTAT</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>17.40581710487936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.675496766957792</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-17.83564934255898</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.03572498371517</v>
-      </c>
-      <c r="J8" t="n">
-        <v>60.53065026463071</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-50.63914322873023</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J9" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTAT</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>17.40581710487936</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.675496766957792</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-17.83564934255898</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>60.03572498371517</v>
-      </c>
-      <c r="J10" t="n">
-        <v>60.53065026463071</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2300</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,84 +1273,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
+          <t>CGCGCCAAAAAGAGTATTGACT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>52.54718254163936</v>
+        <v>54.09291094564452</v>
       </c>
       <c r="F2" t="n">
-        <v>67.01747875103928</v>
+        <v>68.74232186058538</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
+          <t>CGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>557</v>
+        <v>1577</v>
       </c>
       <c r="I2" t="n">
-        <v>3.907304465258903</v>
+        <v>-2.760358960867222</v>
       </c>
       <c r="J2" t="n">
-        <v>3.239052365932593</v>
+        <v>-4.023749354511722</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.840496186381699</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>52.54718254163936</v>
-      </c>
-      <c r="F3" t="n">
-        <v>67.01747875103928</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>557</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.907304465258903</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.239052365932593</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-4.840496186381699</v>
+        <v>3.164417210860279</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1906,41 +1387,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-7.206200170467866</v>
+        <v>-18.06656264433227</v>
       </c>
       <c r="E2" t="n">
-        <v>31.44122408679118</v>
+        <v>-42.9625693662399</v>
       </c>
       <c r="F2" t="n">
-        <v>-48.36656690855659</v>
+        <v>-7.940638660056891</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>57.39168379981049</v>
+        <v>59.68252050089797</v>
       </c>
       <c r="J2" t="n">
-        <v>60.51188660655191</v>
+        <v>58.83935928832585</v>
       </c>
       <c r="K2" t="n">
-        <v>1575</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3">
@@ -1949,41 +1430,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-7.206200170467866</v>
+        <v>-18.06656264433227</v>
       </c>
       <c r="E3" t="n">
-        <v>31.44122408679118</v>
+        <v>-42.9625693662399</v>
       </c>
       <c r="F3" t="n">
-        <v>-48.36656690855659</v>
+        <v>-7.940638660056891</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>57.39168379981049</v>
+        <v>59.68252050089797</v>
       </c>
       <c r="J3" t="n">
-        <v>60.51188660655191</v>
+        <v>58.83935928832585</v>
       </c>
       <c r="K3" t="n">
-        <v>1575</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4">
@@ -1992,41 +1473,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7.206200170467866</v>
+        <v>-18.06656264433227</v>
       </c>
       <c r="E4" t="n">
-        <v>31.44122408679118</v>
+        <v>-42.9625693662399</v>
       </c>
       <c r="F4" t="n">
-        <v>-48.36656690855659</v>
+        <v>-7.940638660056891</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>57.39168379981049</v>
+        <v>59.68252050089797</v>
       </c>
       <c r="J4" t="n">
-        <v>60.51188660655191</v>
+        <v>58.83935928832585</v>
       </c>
       <c r="K4" t="n">
-        <v>1575</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5">
@@ -2035,41 +1516,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-7.206200170467866</v>
+        <v>-18.06656264433227</v>
       </c>
       <c r="E5" t="n">
-        <v>31.44122408679118</v>
+        <v>-42.9625693662399</v>
       </c>
       <c r="F5" t="n">
-        <v>-48.36656690855659</v>
+        <v>-7.940638660056891</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>57.39168379981049</v>
+        <v>59.68252050089797</v>
       </c>
       <c r="J5" t="n">
-        <v>60.51188660655191</v>
+        <v>58.83935928832585</v>
       </c>
       <c r="K5" t="n">
-        <v>1575</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="6">
@@ -2078,213 +1559,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-7.206200170467866</v>
+        <v>-18.06656264433227</v>
       </c>
       <c r="E6" t="n">
-        <v>31.44122408679118</v>
+        <v>-42.9625693662399</v>
       </c>
       <c r="F6" t="n">
-        <v>-48.36656690855659</v>
+        <v>-7.940638660056891</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>57.39168379981049</v>
+        <v>59.68252050089797</v>
       </c>
       <c r="J6" t="n">
-        <v>60.51188660655191</v>
+        <v>58.83935928832585</v>
       </c>
       <c r="K6" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J8" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J9" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J10" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1575</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>

--- a/FDS/test_output/Design_results.xlsx
+++ b/FDS/test_output/Design_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,36 +480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub</t>
+          <t>b0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GTAAGCTCCTGGGGCTTCAC</t>
+          <t>ACTTACGTGTCTGCGGTGTT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
+          <t>GGCCTCGTGATACGCCTATTGTCAGACTCCTAACTTCCATGAGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
+          <t>ACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGAC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CAAAGTCGGGAAACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
+          <t>GTTACTCATCAGATGCTGTTCAATACCGATCAGGTTATCGAAGTGTTTGTGATTGGCGTCGGTGGCGTTGGCGGTGCGCTGCTGGAGCAACTGAAGCGTCAGCAAAGCTGGCTGAAGAATAAACATATCGACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGAC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAATAGGCGTATCACGAGGCC</t>
+          <t>ACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1050</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3">
@@ -518,36 +518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub</t>
+          <t>b0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGGTTCTGACGGGAGAGGAT</t>
+          <t>CAATGACGTTACAGCTGCCG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
+          <t>GGCCTCGTGATACGCCTATTTTAGTTTTCCAGTACTCGTGCG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
+          <t>CAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AGCAACAGCCAGTTCAACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
+          <t>GCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCATCCCTCGACATGAATAGGCGTATCACGAGGCC</t>
+          <t>CAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAAAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4">
@@ -556,112 +556,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aceE_del</t>
+          <t>b0005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GCGTCACAGACATGAAATTGGT</t>
+          <t>TCTGTACATTGGGCGGCAAT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
+          <t>GGCCTCGTGATACGCCTATTAGGTTACTCCTTTTATCATTGCCC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
+          <t>TCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
+          <t>GTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCAATAGGCGTATCACGAGGCC</t>
+          <t>TCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CGAGGTTTGTGCCGTAAAGC</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACAATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CACTGCGCGGGATTTTATGG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGA</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>993</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,35 +650,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub</t>
+          <t>b0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAGTCACTCGATACCTCGGC</t>
+          <t>GCATTGTCTGTTGCGTGGTT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
+          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
+          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCACCCTGGCGTTTT</t>
+          <t>GTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
+          <t>ATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGC</t>
         </is>
       </c>
     </row>
@@ -764,35 +688,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub</t>
+          <t>b0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CACCTGCGCATCACTCAAAC</t>
+          <t>ATCCGTCTTGAGAATGCCCG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
+          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
+          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGAT</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1035</v>
+        <v>1093</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCTAGGCAACAATATCAACGGTCAGCCGG</t>
+          <t>ACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
+          <t>AATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGAT</t>
         </is>
       </c>
     </row>
@@ -802,111 +726,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aceE_del</t>
+          <t>b0005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TTAACACCAAACTCGCGTGC</t>
+          <t>GACGCGTGGGATGATGTTTC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
+          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
+          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCCGGCAGCGACTGGCGGTGGTATCCCTGGCATG</t>
+          <t>CATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTCCGGAGAAAGCTGGCGACCGATATCCGGATAACGCAATGGATCAAACACCGGGCGCACGCCGAGTTTACGCTGGCGTAGATAATCACTGGCAATGGTATGAACCACAGGCGAGAGCAGTAAAATGGCGGTC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ACTTGGTGATGCGGTAGTCG</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1057</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CGATGTCGCTGGCGTTAATG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1051</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
+          <t>ATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTC</t>
         </is>
       </c>
     </row>
@@ -921,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,41 +835,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub</t>
+          <t>b0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCA</t>
+          <t>TCAGATGCTGTTCAATACCGATCAGGTTATCGAAGTGTTTGTGATTGGCGTCGGTGGCGTTGGCGGTGCGCTGCTGGAGCAACTGAAGCGTCAGCAAAGCTGGCTGAAGAATAAACATATCGACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCAC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.64979653795285</v>
+        <v>-28.67762991935746</v>
       </c>
       <c r="E2" t="n">
-        <v>-33.87694222802281</v>
+        <v>-11.19334412205274</v>
       </c>
       <c r="F2" t="n">
-        <v>18.98315983858089</v>
+        <v>3.326930937698307</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AACGCGAAGGTCGGTTTTTC</t>
+          <t>TCAGATGCTGTTCAATACCGA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TGCCGACCAGCAACTTGG</t>
+          <t>GTGCCGAGGAACAAGCCATA</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>59.6943825309412</v>
+        <v>57.11427589555893</v>
       </c>
       <c r="J2" t="n">
-        <v>60.59430255997739</v>
+        <v>60.39246077736146</v>
       </c>
       <c r="K2" t="n">
-        <v>2315</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="3">
@@ -1030,41 +878,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub</t>
+          <t>b0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCT</t>
+          <t>GCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAAAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.25874858550679</v>
+        <v>-46.32795461786364</v>
       </c>
       <c r="E3" t="n">
-        <v>9.051540840486894</v>
+        <v>12.95336201406417</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.990713976036261</v>
+        <v>4.833942337509598</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AACTTCTGAACCGGTAGCGA</t>
+          <t>GCGTGAAGATTGCCGAAGTG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AGCGCATTGGCAATAGTTGTC</t>
+          <t>CGAAACCTTCAGCGAAGACG</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>59.03603785987434</v>
+        <v>60.17921481643259</v>
       </c>
       <c r="J3" t="n">
-        <v>59.86697546596565</v>
+        <v>59.56499199245616</v>
       </c>
       <c r="K3" t="n">
-        <v>2217</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="4">
@@ -1073,127 +921,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aceE_del</t>
+          <t>b0005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCC</t>
+          <t>TGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTCCGGAGAAAGCTGGCGACCGATATCCGGATAACGCAATGGATCAAACACCGGGCGCACGCCGAGTTTACGCTGGCGTAGATAATCACTGGCAATGGTATGAACCACAGGCGAGAGCAGTAAAATGGCG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-42.60669801557233</v>
+        <v>5.885215896573129</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.900577242230667</v>
+        <v>-34.68241902366907</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.517879085020752</v>
+        <v>-29.54156409016912</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ACGTAAAGTCTACATTTGTGCA</t>
+          <t>TGACCATTCTGACCGCGAC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GGAGCTGCTTCTGCACGTTT</t>
+          <t>CGCCATTTTACTGCTCTCGC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>56.32043528895827</v>
+        <v>60.08009301751491</v>
       </c>
       <c r="J4" t="n">
-        <v>61.51048014864102</v>
+        <v>59.97319661701511</v>
       </c>
       <c r="K4" t="n">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>8.32323228564394</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-14.63116813722309</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.99409519360194</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TAATTTCGCCCGCACGGAT</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TGTCGAACGGGACCATCATC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>60.15332929800883</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59.82515507935778</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.763999345539332</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.263335569570756</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.876222107101569</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AGTCGCTAAAGTCAGGCCAT</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TGACTTGTTAGCCGGTCAGC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>59.09464305682206</v>
-      </c>
-      <c r="J6" t="n">
-        <v>60.32042093038291</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2227</v>
+        <v>3724</v>
       </c>
     </row>
   </sheetData>
@@ -1207,110 +969,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRODUCT_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PRODUCT_SIZE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PAIR_TM_HETERODIMER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CGCGCCAAAAAGAGTATTGACT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>54.09291094564452</v>
-      </c>
-      <c r="F2" t="n">
-        <v>68.74232186058538</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAAATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-2.760358960867222</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-4.023749354511722</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.164417210860279</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1321,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,7 +1053,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub</t>
+          <t>b0003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1430,7 +1096,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub</t>
+          <t>b0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1473,7 +1139,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aceE_del</t>
+          <t>b0005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1507,92 +1173,6 @@
         <v>58.83935928832585</v>
       </c>
       <c r="K4" t="n">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-18.06656264433227</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-42.9625693662399</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-7.940638660056891</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>59.68252050089797</v>
-      </c>
-      <c r="J5" t="n">
-        <v>58.83935928832585</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-18.06656264433227</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-42.9625693662399</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-7.940638660056891</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>59.68252050089797</v>
-      </c>
-      <c r="J6" t="n">
-        <v>58.83935928832585</v>
-      </c>
-      <c r="K6" t="n">
         <v>1418</v>
       </c>
     </row>

--- a/FDS/test_output/Design_results.xlsx
+++ b/FDS/test_output/Design_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,36 +480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b0003</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACTTACGTGTCTGCGGTGTT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTGTCAGACTCCTAACTTCCATGAGA</t>
+          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGAC</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GTTACTCATCAGATGCTGTTCAATACCGATCAGGTTATCGAAGTGTTTGTGATTGGCGTCGGTGGCGTTGGCGGTGCGCTGCTGGAGCAACTGAAGCGTCAGCAAAGCTGGCTGAAGAATAAACATATCGACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGAC</t>
+          <t>CAAAGTCGGGAAACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACAATAGGCGTATCACGAGGCC</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>995</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3">
@@ -518,36 +518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b0004</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAATGACGTTACAGCTGCCG</t>
+          <t>AGGTTCTGACGGGAGAGGAT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTTTAGTTTTCCAGTACTCGTGCG</t>
+          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAA</t>
+          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAA</t>
+          <t>AGCAACAGCCAGTTCAACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAAAATAGGCGTATCACGAGGCC</t>
+          <t>AGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCATCCCTCGACATGAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="4">
@@ -556,36 +556,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>b0005</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TCTGTACATTGGGCGGCAAT</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTAGGTTACTCCTTTTATCATTGCCC</t>
+          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCT</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCT</t>
+          <t>TACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTAATAGGCGTATCACGAGGCC</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCAATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1012</v>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACAATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CACTGCGCGGGATTTTATGG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGA</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,35 +726,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b0003</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GCATTGTCTGTTGCGTGGTT</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGA</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGC</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGA</t>
+          <t>TAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCACCCTGGCGTTTT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGC</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
     </row>
@@ -688,35 +764,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b0004</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATCCGTCTTGAGAATGCCCG</t>
+          <t>CACCTGCGCATCACTCAAAC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGC</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGAT</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1093</v>
+        <v>1035</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCG</t>
+          <t>GGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCTAGGCAACAATATCAACGGTCAGCCGG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGAT</t>
+          <t>ACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTG</t>
         </is>
       </c>
     </row>
@@ -726,35 +802,111 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>b0005</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GACGCGTGGGATGATGTTTC</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACA</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTC</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1078</v>
+        <v>1092</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTCCGGAGAAAGCTGGCGACCGATATCCGGATAACGCAATGGATCAAACACCGGGCGCACGCCGAGTTTACGCTGGCGTAGATAATCACTGGCAATGGTATGAACCACAGGCGAGAGCAGTAAAATGGCGGTC</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCCGGCAGCGACTGGCGGTGGTATCCCTGGCATG</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTC</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CGATGTCGCTGGCGTTAATG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1051</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
     </row>
@@ -769,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,41 +987,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b0003</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TCAGATGCTGTTCAATACCGATCAGGTTATCGAAGTGTTTGTGATTGGCGTCGGTGGCGTTGGCGGTGCGCTGCTGGAGCAACTGAAGCGTCAGCAAAGCTGGCTGAAGAATAAACATATCGACTTACGTGTCTGCGGTGTTGCCAACTCGAAGGCTCTGCTCACCAATGTACATGGCCTTAATCTGGAAAACTGGCAGGAAGAACTGGCGCAAGCCAAAGAGCCGTTTAATCTCGGGCGCTTAATTCGCCTCGTGAAAGAATATCATCTGCTGAACCCGGTCATTGTTGACTGCACTTCCAGCCAGGCAGTGGCGGATCAATATGCCGACTTCCTGCGCGAAGGTTTCCACGTTGTCACGCCGAACAAAAAGGCCAACACCTCGTCGATGGATTACTACCATCAGTTGCGTTATGCGGCGGAAAAATCGCGGCGTAAATTCCTCTATGACACCAACGTTGGGGCTGGATTACCGGTTATTGAGAACCTGCAAAATCTGCTCAATGCAGGTGATGAATTGATGAAGTTCTCCGGCATTCTTTCTGGTTCGCTTTCTTATATCTTCGGCAAGTTAGACGAAGGCATGAGTTTCTCCGAGGCGACCACGCTGGCGCGGGAAATGGGTTATACCGAACCGGACCCGCGAGATGATCTTTCTGGTATGGATGTGGCGCGTAAACTATTGATTCTCGCTCGTGAAACGGGACGTGAACTGGAGCTGGCGGATATTGAAATTGAACCTGTGCTGCCCGCAGAGTTTAACGCCGAGGGTGATGTTGCCGCTTTTATGGCGAATCTGTCACAACTCGACGATCTCTTTGCCGCGCGCGTGGCGAAGGCCCGTGATGAAGGAAAAGTTTTGCGCTATGTTGGCAATATTGATGAAGATGGCGTCTGCCGCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGATCACAACGAGCAGGTCAGCTTTGCGCAAGCCGTAACCCAGGGGTTGGGCAAAAATCAGGGGCTGTTTTTTCCGCACGACCTGCCGGAATTCAGCCTGACTGAAATTGATGAGATGCTGAAGCTGGATTTTGTCACCCGCAGTGCGAAGATCCTCTCGGCGTTTATTGGTGATGAAATCCCACAGGAAATCCTGGAAGAGCGCGTGCGCGCGGCGTTTGCCTTCCCGGCTCCGGTCGCCAATGTTGAAAGCGATGTCGGTTGTCTGGAATTGTTCCACGGGCCAACGCTGGCATTTAAAGATTTCGGCGGTCGCTTTATGGCACAAATGCTGACCCATATTGCGGGTGATAAGCCAGTGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCAC</t>
+          <t>AACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-28.67762991935746</v>
+        <v>13.64979653795285</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.19334412205274</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="F2" t="n">
-        <v>3.326930937698307</v>
+        <v>18.98315983858089</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TCAGATGCTGTTCAATACCGA</t>
+          <t>AACGCGAAGGTCGGTTTTTC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GTGCCGAGGAACAAGCCATA</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>57.11427589555893</v>
+        <v>59.6943825309412</v>
       </c>
       <c r="J2" t="n">
-        <v>60.39246077736146</v>
+        <v>60.59430255997739</v>
       </c>
       <c r="K2" t="n">
-        <v>3672</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="3">
@@ -878,41 +1030,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b0004</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GCGTGAAGATTGCCGAAGTGGATGGTAATGATCCGCTGTTCAAAGTGAAAAATGGCGAAAACGCCCTGGCCTTCTATAGCCACTATTATCAGCCGCTGCCGTTGGTACTGCGCGGATATGGTGCGGGCAATGACGTTACAGCTGCCGGTGTCTTTGCTGATCTGCTACGTACCCTCTCATGGAAGTTAGGAGTCTGACATGGTTAAAGTTTATGCCCCGGCTTCCAGTGCCAATATGAGCGTCGGGTTTGATGTGCTCGGGGCGGCGGTGACACCTGTTGATGGTGCATTGCTCGGAGATGTAGTCACGGTTGAGGCGGCAGAGACATTCAGTCTCAACAACCTCGGACGCTTTGCCGATAAGCTGCCGTCAGAACCACGGGAAAATATCGTTTATCAGTGCTGGGAGCGTTTTTGCCAGGAACTGGGTAAGCAAATTCCAGTGGCGATGACCCTGGAAAAGAATATGCCGATCGGTTCGGGCTTAGGCTCCAGTGCCTGTTCGGTGGTCGCGGCGCTGATGGCGATGAATGAACACTGCGGCAAGCCGCTTAATGACACTCGTTTGCTGGCTTTGATGGGCGAGCTGGAAGGCCGTATCTCCGGCAGCATTCATTACGACAACGTGGCACCGTGTTTTCTCGGTGGTATGCAGTTGATGATCGAAGAAAACGACATCATCAGCCAGCAAGTGCCAGGGTTTGATGAGTGGCTGTGGGTGCTGGCGTATCCGGGGATTAAAGTCTCGACGGCAGAAGCCAGGGCTATTTTACCGGCGCAGTATCGCCGCCAGGATTGCATTGCGCACGGGCGACATCTGGCAGGCTTCATTCACGCCTGCTATTCCCGTCAGCCTGAGCTTGCCGCGAAGCTGATGAAAGATGTTATCGCTGAACCCTACCGTGAACGGTTACTGCCAGGCTTCCGGCAGGCGCGGCAGGCGGTCGCGGAAATCGGCGCGGTAGCGAGCGGTATCTCCGGCTCCGGCCCGACCTTGTTCGCTCTGTGTGACAAGCCGGAAACCGCCCAGCGCGTTGCCGACTGGTTGGGTAAGAACTACCTGCAAAATCAGGAAGGTTTTGTTCATATTTGCCGGCTGGATACGGCGGGCGCACGAGTACTGGAAAACTAAAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTGTGAAAAAGATGCAATCTATCGTACTCGCACTTTCCCTGGTTCTGGTCGCTCCCATGGCAGCACAGGCTGCGGAAATTACGTTAGTCCCGTCAGTAAAATTACAGATAGGCGATCGTGATAATCGTGGCTATTACTGGGATGGAGGTCACTGGCGCGACCACGGCTGGTGGAAACAACATTATGAATGGCGAGGCAATCGCTGGCACCTACACGGACCGCCGCCACCGCCGCGCCACCATAAGAAAGCTCCTCATGATCATCACGGCGGTCATGGTCCAGGCAAACATCACCGCTAAATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCG</t>
+          <t>AACTTCTGAACCGGTAGCGATGAAAATCAGTTCCGGCTGACCGGCGCAGTCTTTCAGCACATAACCACCGCGCGCGATGTTTGCCAGTTGCTCTTCAGTTCGTTCCTGCTGCGCCAGGTTCTGACGGGAGAGGATCAGTGCGGTCGGGCCGTCCTGACGCTCAACACCGTATTTCCACGCGACCGCGGATTCAACCTGGTCACACGGACGCCATGTAGACATGTTCGGGGTTACGCGCAGAGAAGCGACCTGCTCAACCGGCTGGTGAGTCGGGCCGTCTTCGCCCAGACCGATGGAGTCGTGGGTGTAAACCATCACCTGACGCTGTTTCATCAGCGCAGCCATACGTACGGCGTTACGTGCGTATTCCACGAACATCAGGAAGGTGGAGGTGTACGGCAGGAAGCCACCGTGCAGGGAGATACCGTTAGCAATCGCGGTCATACCGAACTCGCGAACACCGTAGTGGATGTAGTTACCCGCAGCATCTTCGTTGATTGCTTTAGAACCAGACCACAGGGTCAGGTTAGACGGCGCCAGGTCAGCAGAACCGCCGAGGAATTCCGGCAACAGCGGACCGAACGCTTCGATAGCATTCTGAGACGCTTTACGGCTGGCGATTTTCGCCGGATTAGCCTGCAGTTTAGCGATGAACTCTTTCGCTTTAGCGTCGAAGTCAGACGGCATTTCGCCTTTCATACGGCGGGTAAATTCAGCGGCTTCCTGCGGATAAGCTTTCGCGTAAGCAGCGAATTTCTCGTTCCATGCGGATTCTTTCGCCTGGCCTGCTTCTTTCGCATCCCACTGAGCATAGATTTCAGACGGGATTTCGAACGGCGCATATTTCCAGCCCAGTTGTTCGCGGGTCAGGGCAATTTCAGCGTCGCCCAGCGGCGCACCGTGGGAGTCGTGGGTACCGGCTTTGTTCGGGGAACCGAAACCGATGATGGTTTTGCACATCAGCAGGGAAGGTTTGTCAGTCACTGCGCGCGCTTCTTCTACTGCGCGTTTGATAGATGCCGCGTCATGACCGTCGATGTCGCGAATAACGTGCCAGCCGTAAGCTTCGAAACGCATTGCGGTGTCGTCGGTGAACCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCATCGTAGAATGCAATCAGTTTACCCAGCTTCAGCGTACCCGCCAGAGAGCAAACTTCGTGGGAGATGCCTTCCATCATGCAGCCGTCGCCCATGAAGGCGTAGGTGTAGTGGTCGACAATGTCGTGGCCCGGACGGTTAAACTGCGCCGCCAGCGTTTTTTCTGCAATCGCCATACCGACTGCGTTGGCAATACCCTGACCCAGCGGACCGGTGGTGGTTTCCACACCAGCGGTGTAACCCACTTCCGGGTGACCCGGAGTTTTAGAGTGCAGCTGACGGAAGTTTTTCAGTTCTTCCATCGGCAGATCGTAACCGGTGAGGTGCAGCAGGCTGTAGATCAGCATGGAGCCGTGGCCGTTGGACAGCACGAAGCGGTCACGGTCAGCCCAGGACGGATTCTGCGGGTTGTGTTTCAGGAAATCACGCCACAGGACTTCGGCAATGTCAGCCATACCCATAGGGGCACCCGGGTGACCGGATTTGGCTTTCTGTACTGCGTCCATGCTCAGCGCACGAATAGCATTGGCAAGCTCTTTACGTGAGGACATTTTGACTCCAGATCGGATGATGAAGGGCACGCCCTTAACGACTTGACGACAGCGCGTTTTGGGCTACGCCGGAAAATTTGCCAACAATTTACCGCAAGCCGCGCGTCATGTACATGGAACATCCTTTTGCCGCTTCAGAAATCTCTGGATCATGCTCGCATGTTGCGCAATCTACTCGCCCGTCCGCTGCGCTTTTCCTTATACTGAGACTGAGCGTCGATTCACCTGCAAACGGCGCATTTTTAGAATAATCCTGACCTTGTGCGGAAGAGAAAACATGAAAATTCGCGCCTTATTGGTAGCAATGAGCGTGGCAACGGTACTGACTGGTTGCCAGAATATGGACTCCAACGGACTGCTCTCATCAGGAGCGGAAGCTTTTCAGGCTTACAGTTTGAGTGATGCGCAGGTGAAAACCCTGAGCGATCAGGCATGTCAGGAGATGGACAGCAAGGCGACGATTGCGCCAGCCAATAGCGAATACGCTAAACGTCTGACAACTATTGCCAATGCGCT</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-46.32795461786364</v>
+        <v>14.25874858550679</v>
       </c>
       <c r="E3" t="n">
-        <v>12.95336201406417</v>
+        <v>9.051540840486894</v>
       </c>
       <c r="F3" t="n">
-        <v>4.833942337509598</v>
+        <v>-8.990713976036261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GCGTGAAGATTGCCGAAGTG</t>
+          <t>AACTTCTGAACCGGTAGCGA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGAAACCTTCAGCGAAGACG</t>
+          <t>AGCGCATTGGCAATAGTTGTC</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.17921481643259</v>
+        <v>59.03603785987434</v>
       </c>
       <c r="J3" t="n">
-        <v>59.56499199245616</v>
+        <v>59.86697546596565</v>
       </c>
       <c r="K3" t="n">
-        <v>3740</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="4">
@@ -921,41 +1073,127 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>b0005</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TGACCATTCTGACCGCGACCTCCGGTGATACCGGAGCGGCAGTGGCTCATGCTTTCTACGGTTTACCGAATGTGAAAGTGGTTATCCTCTATCCACGAGGCAAAATCAGTCCACTGCAAGAAAAACTGTTCTGTACATTGGGCGGCAATATCGAAACTGTTGCCATCGACGGCGATTTCGATGCCTGTCAGGCGCTGGTGAAGCAGGCGTTTGATGATGAAGAACTGAAAGTGGCGCTAGGGTTAAACTCGGCTAACTCGATTAACATCAGCCGTTTGCTGGCGCAGATTTGCTACTACTTTGAAGCTGTTGCGCAGCTGCCGCAGGAGACGCGCAACCAGCTGGTTGTCTCGGTGCCAAGCGGAAACTTCGGCGATTTGACGGCGGGTCTGCTGGCGAAGTCACTCGGTCTGCCGGTGAAACGTTTTATTGCTGCGACCAACGTGAACGATACCGTGCCACGTTTCCTGCACGACGGTCAGTGGTCACCCAAAGCGACTCAGGCGACGTTATCCAACGCGATGGACGTGAGTCAGCCGAACAACTGGCCGCGTGTGGAAGAGTTGTTCCGCCGCAAAATCTGGCAACTGAAAGAGCTGGGTTATGCAGCCGTGGATGATGAAACCACGCAACAGACAATGCGTGAGTTAAAAGAACTGGGCTACACTTCGGAGCCGCACGCTGCCGTAGCTTATCGTGCGCTGCGTGATCAGTTGAATCCAGGCGAATATGGCTTGTTCCTCGGCACCGCGCATCCGGCGAAATTTAAAGAGAGCGTGGAAGCGATTCTCGGTGAAACGTTGGATCTGCCAAAAGAGCTGGCAGAACGTGCTGATTTACCCTTGCTTTCACATAATCTGCCCGCCGATTTTGCTGCGTTGCGTAAATTGATGATGAATCATCAGTAAAATCTATTCATTATCTCAATCAGGCCGGGTTTGCTTTTATGCAGCCCGGCTTTTTTATGAAGAAATTATGGAGAAAAATGACAGGGAAAAAGGAGAAATTCTCAATAAATGCGGTAACTTAGAGATTAGGATTGCGGAGAATAACAACCGCCGTTCTCATCGAGTAATCTCCGGATATCGACCCATAACGGGCAATGATAAAAGGAGTAACCTAATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACAATCCGGCATTCAGCGCCTGATGCGACGCTGGCGCGTCTTATCAGGCCTACGTTAATTCTGCAATATATTGAATCTGCATGCTTTTGTAGGCAGGATAAGGCGTTCACGCCGCATCCGGCATTGACTGCAAACTTAACGCTGCTCGTAGCGTTTAAACACCAGTTCGCCATTGCTGGAGGAATCTTCATCAAAGAAGTAACCTTCGCTATTAAAACCAGTCAGTTGCTCTGGTTTGGTCAGCCGATTTTCAATAATGAAACGACTCATCAGACCGCGTGCTTTCTTAGCGTAGAAGCTGATGATCTTAAATTTGCCGTTCTTCTCATCGAGGAACACCGGCTTGATAATCTCGGCATTCAATTTCTTCGGCTTCACCGATTTAAAATACTCATCTGACGCCAGATTAATCACCACATTATCGCCTTGTGCTGCGAGCGCCTCGTTCAGCTTGTTGGTGATGATATCTCCCCAGAATTGATACAGATCTTTCCCTCGGGCATTCTCAAGACGGATCCCCATTTCCAGACGATAAGGCTGCATTAAATCGAGCGGGCGGAGTACGCCATACAAGCCGGAAAGCATTCGCAAATGCTGTTGGGCAAAATCGAAATCGTCTTCGCTGAAGGTTTCGGCCTGCAAGCCGGTGTAGACATCACCTTTAAACGCCAGAATCGCCTGGCGGGCATTCGCCGGCGTGAAATCTGGCTGCCAGTCATGAAAGCGAGCGGCGTTGATACCCGCCAGTTTGTCGCTGATGCGCATCAGCGTGCTAATCTGCGGAGGCGTCAGTTTCCGCGCCTCATGGATCAACTGCTGGGAATTGTCTAACAGCTCCGGCAGCGTATAGCGCGTGGTGGTCAACGGGCTTTGGTAATCAAGCGTTTTCGCAGGTGAAATAAGAATCAGCATATCCAGTCCTTGCAGGAAATTTATGCCGACTTTAGCAAAAAATGAGAATGAGTTGATCGATAGTTGTGATTACTCCTGCGAAACATCATCCCACGCGTCCGGAGAAAGCTGGCGACCGATATCCGGATAACGCAATGGATCAAACACCGGGCGCACGCCGAGTTTACGCTGGCGTAGATAATCACTGGCAATGGTATGAACCACAGGCGAGAGCAGTAAAATGGCG</t>
+          <t>ACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCCAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.885215896573129</v>
+        <v>-42.60669801557233</v>
       </c>
       <c r="E4" t="n">
-        <v>-34.68241902366907</v>
+        <v>-0.900577242230667</v>
       </c>
       <c r="F4" t="n">
-        <v>-29.54156409016912</v>
+        <v>-6.517879085020752</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TGACCATTCTGACCGCGAC</t>
+          <t>ACGTAAAGTCTACATTTGTGCA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGCCATTTTACTGCTCTCGC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60.08009301751491</v>
+        <v>56.32043528895827</v>
       </c>
       <c r="J4" t="n">
-        <v>59.97319661701511</v>
+        <v>61.51048014864102</v>
       </c>
       <c r="K4" t="n">
-        <v>3724</v>
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8.32323228564394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-14.63116813722309</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.99409519360194</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TAATTTCGCCCGCACGGAT</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TGTCGAACGGGACCATCATC</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>60.15332929800883</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59.82515507935778</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.763999345539332</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.263335569570756</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.876222107101569</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AGTCGCTAAAGTCAGGCCAT</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>59.09464305682206</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60.32042093038291</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
@@ -969,14 +1207,110 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_LEFT_WHOLE_SEQUENCE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_RIGHT_WHOLE_SEQUENCE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_LEFT_TM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_RIGHT_TM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCT_SEQUENCE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_PRODUCT_SIZE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_LEFT_TM_HOMODIMER</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_RIGHT_TM_HOMODIMER</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PRIMER_PAIR_TM_HETERODIMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CGCGCCAAAAAGAGTATTGACT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>54.09291094564452</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68.74232186058538</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAAATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1577</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.760358960867222</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-4.023749354511722</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.164417210860279</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -987,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b0003</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1096,7 +1430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b0004</t>
+          <t>tktA_573_12bp_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1139,7 +1473,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>b0005</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1173,6 +1507,92 @@
         <v>58.83935928832585</v>
       </c>
       <c r="K4" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-18.06656264433227</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-42.9625693662399</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-7.940638660056891</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>59.68252050089797</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58.83935928832585</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCCCTTTCTACGGCCCCAAGGTCCAAACGGTGATAGGGATAACAGGGTAATGTACCATTTACGTTGACACCACCTTTCGCGTATGGCATGATAGCGCCGGGAAGAGAGTCAATTCAGGGTGGTGAATATGAATAGTTCGACAAAGATCGCATTGGTAATTACGTTACTCGATGCCATGGGGATTGGCCTTATCATGCCAGTCTTGCCAACGTTATTACGTGAATTTATTGCTTCGGAAGATATCGCTAACCACTTTGGCGTATTGCTTGCACTTTATGCGTTAATGCAGGTTATCTTTGCTCCTTGGCTTGGAAAAATGTCTGACCGATTTGGTCGGCGCCCAGTGCTGTTGTTGTCATTAATAGGCGCATCGCTGGATTACTTATTGCTGGCTTTTTCAAGTGCGCTTTGGATGCTGTATTTAGGCCGTTTGCTTTCAGGGATCACAGGAGCTACTGGGGCTGTCGCGGCATCGGTCATTGCCGATACCACCTCAGCTTCTCAACGCGTGAAGTGGTTCGGTTGGTTAGGGGCAAGTTTTGGGCTTGGTTTAATAGCGGGGCCTATTATTGGTGGTTTTGCAGGAGAGATTTCACCGCATAGTCCCTTTTTTATCGCTGCGTTGCTAAATATTGTCACTTTCCTTGTGGTTATGTTTTGGTTCCGTGAAACCAAAAATACACGTGATAATACAGATACCGAAGTAGGGGTTGAGACGCAATCAAATTCGGTGTACATCACTTTATTTAAAACGATGCCCATTTTGTTGATTATTTATTTTTCAGCGCAATTGATAGGCCAAATTCCCGCAACGGTGTGGGTGCTATTTACCGAAAATCGTTTTGGATGGAATAGCATGATGGTTGGCTTTTCATTAGCGGGTCTTGGTCTTTTACACTCAGTATTCCAAGCCTTTGTGGCAGGAAGAATAGCCACTAAATGGGGCGAAAAAACGGCAGTACTGCTCGGATTTATTGCAGATAGTAGTGCATTTGCCTTTTTAGCGTTTATATCTGAAGGTTGGTTAGTTTTCCCTGTTTTAATTTTATTGGCTGGTGGTGGGATCGCTTTACCTGCATTACAGGGAGTGATGTCTATCCAAACAAAGAGTCATCAGCAAGGTGCTTTACAGGGATTATTGGTGAGCCTTACCAATGCAACCGGTGTTATTGGCCCATTACTGTTTGCTGTTATTTATAATCATTCACTACCAATTTGGGATGGCTGGATTTGGATTATTGGTTTAGCGTTTTACTGTATTATTATCCTGCTATCAATGACCTTCATGTTGACCCCTCAAGCTCAGGGGAGTAAACAGGAGACAAGTGCTTAGTAGGGATAACAGGGTAATGATGGCGCCTCATCCCTGAAGCCAAGGCATCAAATAAAACGAAAGGCTCA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-18.06656264433227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-42.9625693662399</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-7.940638660056891</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>59.68252050089797</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58.83935928832585</v>
+      </c>
+      <c r="K6" t="n">
         <v>1418</v>
       </c>
     </row>
